--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.485012999999999</v>
+        <v>4.055275000000001</v>
       </c>
       <c r="H2">
-        <v>16.455039</v>
+        <v>12.165825</v>
       </c>
       <c r="I2">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="J2">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.506334493488666</v>
+        <v>1.113689359183334</v>
       </c>
       <c r="R2">
-        <v>13.557010441398</v>
+        <v>10.02320423265</v>
       </c>
       <c r="S2">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="T2">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.542812333333334</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H3">
         <v>19.628437</v>
       </c>
       <c r="I3">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="J3">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -635,10 +635,10 @@
         <v>16.171515932434</v>
       </c>
       <c r="S3">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="T3">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.205681333333334</v>
+        <v>6.7998</v>
       </c>
       <c r="H4">
-        <v>15.617044</v>
+        <v>20.3994</v>
       </c>
       <c r="I4">
-        <v>0.2577942255873873</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="J4">
-        <v>0.2577942255873872</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.429622382756444</v>
+        <v>1.8674109412</v>
       </c>
       <c r="R4">
-        <v>12.866601444808</v>
+        <v>16.8066984708</v>
       </c>
       <c r="S4">
-        <v>0.2577942255873873</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="T4">
-        <v>0.2577942255873872</v>
+        <v>0.3265071903159472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.959658333333334</v>
+        <v>3.427994</v>
       </c>
       <c r="H5">
-        <v>8.878975000000001</v>
+        <v>10.283982</v>
       </c>
       <c r="I5">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="J5">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.8128030756611112</v>
+        <v>0.9414208509026667</v>
       </c>
       <c r="R5">
-        <v>7.315227680950001</v>
+        <v>8.472787658124</v>
       </c>
       <c r="S5">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="T5">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
     </row>
   </sheetData>
